--- a/Team-Data/2008-09/3-2-2008-09.xlsx
+++ b/Team-Data/2008-09/3-2-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
         <v>26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,16 +751,16 @@
         <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
         <v>7.4</v>
       </c>
       <c r="M2" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.365</v>
@@ -702,7 +769,7 @@
         <v>19.2</v>
       </c>
       <c r="P2" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="Q2" t="n">
         <v>0.736</v>
@@ -723,16 +790,16 @@
         <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
         <v>20.9</v>
@@ -741,13 +808,13 @@
         <v>98.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
         <v>9</v>
@@ -774,7 +841,7 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO2" t="n">
         <v>16</v>
@@ -786,13 +853,13 @@
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS2" t="n">
         <v>21</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>17</v>
@@ -801,7 +868,7 @@
         <v>6</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>18</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" t="n">
         <v>14</v>
       </c>
       <c r="G3" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,10 +975,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
         <v>23.3</v>
@@ -920,16 +987,16 @@
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,16 +1029,16 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
         <v>8</v>
@@ -983,10 +1050,10 @@
         <v>26</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -1156,10 +1223,10 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
         <v>33</v>
       </c>
       <c r="G5" t="n">
-        <v>0.441</v>
+        <v>0.45</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,10 +1297,10 @@
         <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
@@ -1242,34 +1309,34 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.788</v>
+        <v>0.787</v>
       </c>
       <c r="R5" t="n">
         <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.6</v>
@@ -1281,37 +1348,37 @@
         <v>21.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.7</v>
+        <v>100.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.7</v>
+        <v>-1.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>24</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1347,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="AW5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1359,7 +1426,7 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BB5" t="n">
         <v>11</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -1397,61 +1464,61 @@
         <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.389</v>
+        <v>0.383</v>
       </c>
       <c r="O6" t="n">
         <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="V6" t="n">
         <v>13.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X6" t="n">
         <v>5.6</v>
@@ -1463,31 +1530,31 @@
         <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" t="n">
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>26</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>25</v>
@@ -1496,19 +1563,19 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>22</v>
@@ -1520,7 +1587,7 @@
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
@@ -1529,19 +1596,19 @@
         <v>7</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
         <v>4</v>
       </c>
       <c r="AY6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ6" t="n">
         <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" t="n">
         <v>36</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H7" t="n">
         <v>48.4</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
         <v>83.09999999999999</v>
@@ -1603,16 +1670,16 @@
         <v>6.7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.345</v>
+        <v>0.346</v>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8169999999999999</v>
@@ -1621,52 +1688,52 @@
         <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA7" t="n">
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9</v>
+        <v>101.2</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
         <v>24</v>
@@ -1699,25 +1766,25 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1851,7 +1918,7 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
@@ -2033,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="n">
         <v>22</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2263,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>24</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -2388,10 +2455,10 @@
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH11" t="n">
         <v>21</v>
@@ -2409,13 +2476,13 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN11" t="n">
         <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2436,10 +2503,10 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,7 +2518,7 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -2668,40 +2735,40 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="n">
         <v>15</v>
       </c>
       <c r="F13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="n">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J13" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L13" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.348</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P13" t="n">
         <v>22.6</v>
@@ -2710,22 +2777,22 @@
         <v>0.745</v>
       </c>
       <c r="R13" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S13" t="n">
         <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U13" t="n">
         <v>21</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X13" t="n">
         <v>6.1</v>
@@ -2734,34 +2801,34 @@
         <v>5.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.6</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2797,7 +2864,7 @@
         <v>22</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>18</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F14" t="n">
         <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,40 +2935,40 @@
         <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.5</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.363</v>
+        <v>0.366</v>
       </c>
       <c r="O14" t="n">
         <v>20.6</v>
       </c>
       <c r="P14" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R14" t="n">
         <v>12.7</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.7</v>
@@ -2913,31 +2980,31 @@
         <v>5.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>16</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3152,7 +3219,7 @@
         <v>24</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
         <v>26</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
         <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="n">
-        <v>0.525</v>
+        <v>0.534</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>36.6</v>
       </c>
       <c r="J16" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.452</v>
@@ -3241,10 +3308,10 @@
         <v>6.8</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
         <v>16.8</v>
@@ -3256,22 +3323,22 @@
         <v>0.752</v>
       </c>
       <c r="R16" t="n">
-        <v>10.2</v>
+        <v>10.1</v>
       </c>
       <c r="S16" t="n">
         <v>29.1</v>
       </c>
       <c r="T16" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
         <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3283,16 +3350,16 @@
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AB16" t="n">
         <v>96.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>12</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3349,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX16" t="n">
         <v>6</v>
@@ -3358,10 +3425,10 @@
         <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" t="n">
         <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475</v>
+        <v>0.468</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3417,7 +3484,7 @@
         <v>81.5</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>6.1</v>
@@ -3426,31 +3493,31 @@
         <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O17" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="P17" t="n">
-        <v>26.2</v>
+        <v>26.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
         <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.2</v>
@@ -3462,19 +3529,19 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
         <v>23.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3504,16 +3571,16 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>7</v>
@@ -3522,13 +3589,13 @@
         <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,10 +3738,10 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK18" t="n">
         <v>28</v>
@@ -3686,13 +3753,13 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO18" t="n">
         <v>18</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
         <v>17</v>
@@ -3704,10 +3771,10 @@
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3725,10 +3792,10 @@
         <v>20</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -3838,16 +3905,16 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
@@ -3865,16 +3932,16 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
         <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>10</v>
@@ -3895,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>19</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.627</v>
+        <v>0.621</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
@@ -3960,7 +4027,7 @@
         <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K20" t="n">
         <v>0.455</v>
@@ -3969,28 +4036,28 @@
         <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O20" t="n">
         <v>18.7</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R20" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S20" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T20" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="U20" t="n">
         <v>19.8</v>
@@ -4008,7 +4075,7 @@
         <v>3.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
         <v>21</v>
@@ -4017,16 +4084,16 @@
         <v>96.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO20" t="n">
         <v>20</v>
@@ -4068,28 +4135,28 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4253,7 +4320,7 @@
         <v>7</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -4306,31 +4373,31 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" t="n">
         <v>45</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>0.237</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J22" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M22" t="n">
         <v>11.5</v>
@@ -4339,13 +4406,13 @@
         <v>0.368</v>
       </c>
       <c r="O22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="P22" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R22" t="n">
         <v>12.4</v>
@@ -4354,16 +4421,16 @@
         <v>30.8</v>
       </c>
       <c r="T22" t="n">
-        <v>43.2</v>
+        <v>43.3</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>16.5</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X22" t="n">
         <v>4.4</v>
@@ -4372,34 +4439,34 @@
         <v>5.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>98.3</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.8</v>
+        <v>-6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF22" t="n">
         <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4414,16 +4481,16 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP22" t="n">
         <v>8</v>
       </c>
-      <c r="AP22" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4432,7 +4499,7 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>20</v>
@@ -4447,13 +4514,13 @@
         <v>21</v>
       </c>
       <c r="AY22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>6.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0.492</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4697,19 +4764,19 @@
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.319</v>
       </c>
       <c r="O24" t="n">
         <v>19.5</v>
       </c>
       <c r="P24" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R24" t="n">
         <v>12.8</v>
@@ -4724,13 +4791,13 @@
         <v>20.4</v>
       </c>
       <c r="V24" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W24" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y24" t="n">
         <v>4.8</v>
@@ -4739,28 +4806,28 @@
         <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>18</v>
@@ -4784,7 +4851,7 @@
         <v>11</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
         <v>27</v>
@@ -4802,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="AV24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW24" t="n">
         <v>5</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4954,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA25" t="n">
         <v>5</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="n">
         <v>37</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.638</v>
+        <v>0.627</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.2</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.465</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
@@ -5082,7 +5149,7 @@
         <v>28.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.6</v>
@@ -5094,46 +5161,46 @@
         <v>6.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>21</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5145,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
         <v>18</v>
@@ -5169,7 +5236,7 @@
         <v>5</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
         <v>17</v>
@@ -5181,10 +5248,10 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.199999999999999</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5321,7 +5388,7 @@
         <v>15</v>
       </c>
       <c r="AM27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN27" t="n">
         <v>21</v>
@@ -5345,19 +5412,19 @@
         <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F28" t="n">
         <v>19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.678</v>
+        <v>0.672</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J28" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.464</v>
@@ -5425,58 +5492,58 @@
         <v>7.9</v>
       </c>
       <c r="M28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.394</v>
+        <v>0.395</v>
       </c>
       <c r="O28" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="P28" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="U28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V28" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X28" t="n">
         <v>4.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>97.3</v>
+        <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,16 +5558,16 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ28" t="n">
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5536,7 +5603,7 @@
         <v>30</v>
       </c>
       <c r="AX28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY28" t="n">
         <v>9</v>
@@ -5551,7 +5618,7 @@
         <v>22</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5679,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="AK29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL29" t="n">
         <v>22</v>
@@ -5694,7 +5761,7 @@
         <v>19</v>
       </c>
       <c r="AP29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5709,7 +5776,7 @@
         <v>27</v>
       </c>
       <c r="AU29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
         <v>8</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>10</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5915,7 +5982,7 @@
         <v>6</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
@@ -5944,22 +6011,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" t="n">
         <v>14</v>
       </c>
       <c r="F31" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" t="n">
-        <v>0.233</v>
+        <v>0.237</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
         <v>81.3</v>
@@ -5968,22 +6035,22 @@
         <v>0.446</v>
       </c>
       <c r="L31" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="N31" t="n">
         <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P31" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
@@ -6010,28 +6077,28 @@
         <v>5.2</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB31" t="n">
         <v>94.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG31" t="n">
         <v>28</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>29</v>
       </c>
       <c r="AH31" t="n">
         <v>29</v>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>18</v>
@@ -6070,7 +6137,7 @@
         <v>30</v>
       </c>
       <c r="AT31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
         <v>22</v>
@@ -6091,7 +6158,7 @@
         <v>13</v>
       </c>
       <c r="BA31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2008-09</t>
+          <t>2009-03-02</t>
         </is>
       </c>
     </row>
